--- a/assignment1/filtered_data.xlsx
+++ b/assignment1/filtered_data.xlsx
@@ -3295,6 +3295,9 @@
       <c r="N2">
         <v>4</v>
       </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
       <c r="P2">
         <v>4</v>
       </c>
@@ -3459,6 +3462,9 @@
       <c r="N3">
         <v>4</v>
       </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
       <c r="P3">
         <v>4</v>
       </c>
@@ -3629,6 +3635,9 @@
       <c r="N4">
         <v>4</v>
       </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
       <c r="P4">
         <v>1</v>
       </c>
@@ -3790,6 +3799,9 @@
       <c r="N5">
         <v>4</v>
       </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
       <c r="P5">
         <v>4</v>
       </c>
@@ -3947,6 +3959,9 @@
       </c>
       <c r="N6">
         <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -4109,6 +4124,9 @@
       <c r="N7">
         <v>3</v>
       </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
       <c r="P7">
         <v>4</v>
       </c>
@@ -4267,6 +4285,9 @@
       <c r="N8">
         <v>4</v>
       </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
       <c r="P8">
         <v>4</v>
       </c>
@@ -4431,6 +4452,9 @@
       <c r="N9">
         <v>2</v>
       </c>
+      <c r="O9">
+        <v>3.99</v>
+      </c>
       <c r="P9">
         <v>5</v>
       </c>
@@ -5439,6 +5463,9 @@
       <c r="N15">
         <v>2</v>
       </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
       <c r="P15">
         <v>4</v>
       </c>
@@ -5603,6 +5630,9 @@
       <c r="N16">
         <v>3</v>
       </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
       <c r="P16">
         <v>5</v>
       </c>
@@ -5758,6 +5788,9 @@
       <c r="N17">
         <v>2</v>
       </c>
+      <c r="O17">
+        <v>2.5</v>
+      </c>
       <c r="P17">
         <v>5</v>
       </c>
@@ -5916,6 +5949,9 @@
       <c r="N18">
         <v>3</v>
       </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
       <c r="P18">
         <v>5</v>
       </c>
@@ -6077,6 +6113,9 @@
       <c r="N19">
         <v>2</v>
       </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
       <c r="P19">
         <v>3</v>
       </c>
@@ -6241,6 +6280,9 @@
       <c r="N20">
         <v>1</v>
       </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
       <c r="P20">
         <v>5</v>
       </c>
@@ -6399,6 +6441,9 @@
       <c r="N21">
         <v>2</v>
       </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
       <c r="P21">
         <v>5</v>
       </c>
@@ -6556,6 +6601,9 @@
       </c>
       <c r="N22">
         <v>3</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
       </c>
       <c r="P22">
         <v>3</v>
@@ -7699,41 +7747,65 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>3.99</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
@@ -7779,40 +7851,64 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/assignment1/filtered_data.xlsx
+++ b/assignment1/filtered_data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="150">
   <si>
     <t>Gender</t>
   </si>
@@ -162,10 +162,10 @@
     <t>Colgate</t>
   </si>
   <si>
-    <t>Crest</t>
-  </si>
-  <si>
-    <t>Pepsodent</t>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Rechargeable</t>
   </si>
   <si>
     <t>Battery</t>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t>Pacer</t>
-  </si>
-  <si>
-    <t>Rechargeable</t>
   </si>
   <si>
     <t>Style</t>
@@ -1596,43 +1593,43 @@
         <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2706,43 +2703,43 @@
         <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3180,43 +3177,43 @@
         <v>138</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>137</v>
@@ -3225,43 +3222,43 @@
         <v>138</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -3278,7 +3275,7 @@
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -3441,6 +3438,9 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
@@ -3608,6 +3608,9 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
       <c r="F4" t="s">
         <v>32</v>
       </c>
@@ -3780,6 +3783,9 @@
       </c>
       <c r="C5" t="s">
         <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -4772,7 +4778,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -4942,7 +4948,7 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -5285,7 +5291,7 @@
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
@@ -5610,7 +5616,7 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -5777,7 +5783,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
         <v>32</v>
@@ -6096,7 +6102,7 @@
         <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
         <v>32</v>
@@ -6260,7 +6266,7 @@
         <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
         <v>32</v>
@@ -6776,7 +6782,7 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6786,6 +6792,9 @@
       <c r="B3" t="s">
         <v>27</v>
       </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
       <c r="E3" t="s">
         <v>32</v>
       </c>
@@ -6797,6 +6806,9 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
@@ -6807,6 +6819,9 @@
       </c>
       <c r="B5" t="s">
         <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -6899,7 +6914,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -6916,7 +6931,7 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -6950,7 +6965,7 @@
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -6978,7 +6993,7 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
@@ -6992,7 +7007,7 @@
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
         <v>32</v>
@@ -7020,7 +7035,7 @@
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
@@ -7034,7 +7049,7 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
         <v>32</v>

--- a/assignment1/filtered_data.xlsx
+++ b/assignment1/filtered_data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="139">
   <si>
     <t>Gender</t>
   </si>
@@ -108,66 +108,12 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Oral-B rechargeable</t>
-  </si>
-  <si>
-    <t>Name brand manual</t>
-  </si>
-  <si>
-    <t>Manual Generic</t>
-  </si>
-  <si>
-    <t>Name brand Manual</t>
-  </si>
-  <si>
-    <t>Oral-B, Manual</t>
-  </si>
-  <si>
-    <t>Manual, Battery, Rechagerable</t>
+    <t>Rechargeable</t>
   </si>
   <si>
     <t>Manual</t>
   </si>
   <si>
-    <t>Crest Batt. Operated</t>
-  </si>
-  <si>
-    <t>Manual Colgate</t>
-  </si>
-  <si>
-    <t>Manual Pepsodent</t>
-  </si>
-  <si>
-    <t>Manual Oral-B</t>
-  </si>
-  <si>
-    <t>Battery operated - Crest</t>
-  </si>
-  <si>
-    <t>Manual - Crest</t>
-  </si>
-  <si>
-    <t>, all Oral-B</t>
-  </si>
-  <si>
-    <t>Oral-B</t>
-  </si>
-  <si>
-    <t>Any</t>
-  </si>
-  <si>
-    <t>Reach</t>
-  </si>
-  <si>
-    <t>Colgate</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Rechargeable</t>
-  </si>
-  <si>
     <t>Battery</t>
   </si>
   <si>
@@ -360,6 +306,12 @@
     <t>ineffective according</t>
   </si>
   <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Price expectation</t>
+  </si>
+  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -420,6 +372,15 @@
     <t>Packaging</t>
   </si>
   <si>
+    <t>Battery life rate</t>
+  </si>
+  <si>
+    <t>Rechargeable Price</t>
+  </si>
+  <si>
+    <t>Look rate</t>
+  </si>
+  <si>
     <t>Indifferent</t>
   </si>
   <si>
@@ -435,10 +396,16 @@
     <t>It’s ugly</t>
   </si>
   <si>
+    <t>will unique colors and patterns affect product</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Price for cool style</t>
   </si>
   <si>
     <t>Timer</t>
@@ -1028,8 +995,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>53</v>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1101,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1109,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1117,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1125,7 +1092,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1133,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1214,8 +1181,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>56</v>
+      <c r="B1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1223,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1231,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1239,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1247,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1255,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1263,7 +1230,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1271,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1279,7 +1246,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1287,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1295,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1303,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1311,7 +1278,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1319,7 +1286,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1327,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1335,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1343,7 +1310,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1351,7 +1318,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1359,7 +1326,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1367,7 +1334,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1375,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1383,7 +1350,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1400,8 +1367,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>59</v>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1587,49 +1554,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2697,91 +2664,199 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
       <c r="N2">
         <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
         <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
       <c r="N4">
         <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2791,19 +2866,91 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -2816,25 +2963,97 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="I7">
         <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8">
         <v>1</v>
       </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
       <c r="L8">
         <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -2847,53 +3066,197 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
       <c r="N10">
         <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12">
         <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2903,64 +3266,244 @@
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="F13">
         <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
       <c r="O15">
         <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16">
         <v>1</v>
       </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
       <c r="M16">
         <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17">
         <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -2970,11 +3513,47 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
       <c r="N18">
         <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -2987,8 +3566,44 @@
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
       <c r="N19">
         <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -2998,14 +3613,50 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="J20">
         <v>1</v>
       </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
       <c r="O20">
         <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -3015,11 +3666,47 @@
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21">
         <v>1</v>
       </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
       <c r="J21">
         <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -3029,11 +3716,47 @@
       <c r="B22">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
         <v>1</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="I22">
         <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3043,272 +3766,272 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS22"/>
+  <dimension ref="A1:BR22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:70">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E1" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1">
+        <v>7</v>
+      </c>
       <c r="G1" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1">
         <v>14</v>
       </c>
-      <c r="N1" s="1">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1">
-        <v>20</v>
+      <c r="L1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AK1" s="1">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>50</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>53</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>56</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>59</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="BD1" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="BE1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:71">
+    </row>
+    <row r="2" spans="1:70">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" t="s">
-        <v>96</v>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
       </c>
       <c r="N2">
         <v>4</v>
       </c>
       <c r="O2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2">
         <v>5</v>
       </c>
       <c r="T2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U2">
         <v>5</v>
@@ -3326,58 +4049,58 @@
         <v>5</v>
       </c>
       <c r="Z2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB2">
         <v>3</v>
       </c>
       <c r="AC2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG2">
         <v>3</v>
       </c>
       <c r="AH2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK2">
-        <v>3</v>
+        <v>10.99</v>
       </c>
       <c r="AL2">
-        <v>10.99</v>
-      </c>
-      <c r="AM2">
-        <v>2</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN2">
+        <v>5</v>
       </c>
       <c r="AO2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>1</v>
@@ -3386,174 +4109,210 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2">
         <v>1</v>
       </c>
       <c r="AZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
       </c>
       <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
         <v>1</v>
       </c>
       <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
         <v>1</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" t="s">
-        <v>97</v>
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3">
         <v>5</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S3">
         <v>5</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <v>4</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF3">
         <v>4</v>
       </c>
       <c r="AG3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK3">
-        <v>2</v>
+        <v>6.99</v>
       </c>
       <c r="AL3">
-        <v>6.99</v>
-      </c>
-      <c r="AM3">
-        <v>2</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN3">
+        <v>0.5</v>
       </c>
       <c r="AO3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>2</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -3562,159 +4321,195 @@
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX3">
         <v>2</v>
       </c>
       <c r="AY3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
         <v>1</v>
       </c>
       <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
         <v>1</v>
       </c>
       <c r="BP3">
         <v>1</v>
       </c>
       <c r="BQ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>80</v>
       </c>
-      <c r="K4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4" t="s">
-        <v>98</v>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4">
         <v>4</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y4">
         <v>5</v>
       </c>
       <c r="Z4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG4">
         <v>4</v>
       </c>
       <c r="AH4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4">
         <v>4</v>
       </c>
       <c r="AJ4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK4">
-        <v>3</v>
+        <v>10.99</v>
       </c>
       <c r="AL4">
-        <v>10.99</v>
-      </c>
-      <c r="AM4">
-        <v>2</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -3723,22 +4518,22 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW4">
         <v>5</v>
@@ -3747,72 +4542,108 @@
         <v>5</v>
       </c>
       <c r="AY4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB4">
         <v>2</v>
       </c>
       <c r="BC4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
         <v>1</v>
       </c>
       <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
         <v>1</v>
       </c>
       <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
         <v>1</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" t="s">
-        <v>99</v>
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -3824,183 +4655,219 @@
         <v>4</v>
       </c>
       <c r="U5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5">
         <v>4</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y5">
         <v>5</v>
       </c>
       <c r="Z5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD5">
         <v>5</v>
       </c>
       <c r="AE5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF5">
         <v>5</v>
       </c>
       <c r="AG5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK5">
-        <v>3</v>
+        <v>20.99</v>
       </c>
       <c r="AL5">
-        <v>20.99</v>
-      </c>
-      <c r="AM5">
-        <v>2</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN5">
+        <v>2</v>
       </c>
       <c r="AO5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AR5">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="AS5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>2</v>
       </c>
       <c r="AU5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5">
         <v>2</v>
       </c>
       <c r="AZ5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5">
         <v>1</v>
       </c>
       <c r="BC5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
         <v>1</v>
       </c>
       <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
         <v>1</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" t="s">
-        <v>100</v>
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4.5</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>3</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>4</v>
       </c>
       <c r="V6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y6">
         <v>2</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -4009,58 +4876,58 @@
         <v>2</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD6">
         <v>2</v>
       </c>
       <c r="AE6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK6">
-        <v>3</v>
+        <v>10.99</v>
       </c>
       <c r="AL6">
-        <v>10.99</v>
-      </c>
-      <c r="AM6">
-        <v>2</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>1</v>
@@ -4069,69 +4936,105 @@
         <v>1</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ6">
         <v>2</v>
       </c>
       <c r="BA6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC6">
         <v>5</v>
       </c>
       <c r="BD6">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>1</v>
       </c>
       <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
         <v>1</v>
       </c>
       <c r="BR6">
         <v>1</v>
       </c>
-      <c r="BS6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:71">
+    </row>
+    <row r="7" spans="1:70">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P7">
         <v>4</v>
@@ -4140,91 +5043,91 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S7">
         <v>5</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X7">
         <v>5</v>
       </c>
       <c r="Y7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>10.99</v>
       </c>
       <c r="AL7">
-        <v>10.99</v>
-      </c>
-      <c r="AM7">
-        <v>2</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -4233,108 +5136,144 @@
         <v>0</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7">
         <v>1</v>
       </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7">
         <v>1</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
         <v>1</v>
       </c>
       <c r="BI7">
         <v>1</v>
       </c>
       <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
         <v>1</v>
       </c>
       <c r="BL7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" t="s">
-        <v>102</v>
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8">
         <v>2</v>
       </c>
       <c r="U8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W8">
         <v>5</v>
       </c>
       <c r="X8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y8">
         <v>5</v>
       </c>
       <c r="Z8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB8">
         <v>3</v>
       </c>
       <c r="AC8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD8">
         <v>3</v>
@@ -4343,168 +5282,201 @@
         <v>2</v>
       </c>
       <c r="AF8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI8">
         <v>4</v>
       </c>
       <c r="AJ8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AK8">
-        <v>1.5</v>
+        <v>10.99</v>
       </c>
       <c r="AL8">
-        <v>10.99</v>
-      </c>
-      <c r="AM8">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>135</v>
+        <v>1</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
         <v>1</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8">
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8">
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8">
         <v>1</v>
       </c>
       <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
         <v>1</v>
       </c>
       <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
         <v>1</v>
       </c>
       <c r="BO8">
-        <v>1</v>
-      </c>
-      <c r="BS8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" t="s">
-        <v>103</v>
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3.99</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>3</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X9">
         <v>4</v>
       </c>
       <c r="Y9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB9">
         <v>2</v>
       </c>
       <c r="AC9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -4513,123 +5485,156 @@
         <v>3</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK9">
-        <v>2</v>
+        <v>20.99</v>
       </c>
       <c r="AL9">
-        <v>20.99</v>
-      </c>
-      <c r="AM9">
-        <v>2</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>0.2</v>
       </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
       <c r="AT9">
+        <v>0.3</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
         <v>0.2</v>
       </c>
-      <c r="AU9">
-        <v>0.3</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
       <c r="BC9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
         <v>1</v>
       </c>
       <c r="BI9">
         <v>1</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" t="s">
-        <v>104</v>
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>5.99</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>5.99</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>5</v>
@@ -4638,46 +5643,46 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S10">
         <v>4</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W10">
         <v>5</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y10">
         <v>5</v>
       </c>
       <c r="Z10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC10">
         <v>1</v>
       </c>
       <c r="AD10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF10">
         <v>5</v>
@@ -4686,141 +5691,174 @@
         <v>5</v>
       </c>
       <c r="AH10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ10">
         <v>1</v>
       </c>
       <c r="AK10">
-        <v>1</v>
-      </c>
-      <c r="AL10">
         <v>10.99</v>
       </c>
+      <c r="AL10" t="s">
+        <v>117</v>
+      </c>
       <c r="AM10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="AN10">
+        <v>0.5</v>
       </c>
       <c r="AO10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU10">
         <v>2</v>
       </c>
       <c r="AV10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>1</v>
       </c>
       <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
         <v>1</v>
       </c>
       <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
         <v>1</v>
       </c>
       <c r="BQ10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" t="s">
-        <v>105</v>
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>6.99</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11">
-        <v>6.99</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W11">
         <v>5</v>
@@ -4832,64 +5870,64 @@
         <v>5</v>
       </c>
       <c r="Z11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA11">
         <v>5</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD11">
         <v>4</v>
       </c>
       <c r="AE11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF11">
         <v>4</v>
       </c>
       <c r="AG11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ11">
         <v>3</v>
       </c>
       <c r="AK11">
-        <v>3</v>
-      </c>
-      <c r="AL11">
         <v>7.99</v>
       </c>
+      <c r="AL11" t="s">
+        <v>118</v>
+      </c>
       <c r="AM11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>2</v>
       </c>
       <c r="AR11">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AS11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -4901,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -4919,108 +5957,141 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD11">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
       </c>
       <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
         <v>1</v>
       </c>
       <c r="BI11">
         <v>1</v>
       </c>
       <c r="BJ11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>32</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" t="s">
-        <v>106</v>
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12">
         <v>3</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X12">
         <v>5</v>
       </c>
       <c r="Y12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA12">
         <v>3</v>
       </c>
       <c r="AB12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD12">
         <v>4</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF12">
         <v>4</v>
@@ -5029,144 +6100,177 @@
         <v>3</v>
       </c>
       <c r="AH12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>1</v>
-      </c>
-      <c r="AL12">
         <v>10.99</v>
       </c>
+      <c r="AL12" t="s">
+        <v>119</v>
+      </c>
       <c r="AM12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>2</v>
       </c>
       <c r="AR12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS12">
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>2</v>
       </c>
       <c r="AV12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY12">
         <v>1</v>
       </c>
       <c r="AZ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12">
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC12">
         <v>2</v>
       </c>
       <c r="BD12">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>1</v>
       </c>
       <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
         <v>1</v>
       </c>
       <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
         <v>1</v>
       </c>
       <c r="BM12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" t="s">
-        <v>107</v>
+        <v>54</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>5.99</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>5.99</v>
+        <v>3</v>
       </c>
       <c r="P13">
         <v>4</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V13">
         <v>5</v>
       </c>
       <c r="W13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X13">
         <v>5</v>
@@ -5178,58 +6282,58 @@
         <v>5</v>
       </c>
       <c r="AA13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI13">
         <v>3</v>
       </c>
       <c r="AJ13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK13">
-        <v>2</v>
-      </c>
-      <c r="AL13">
         <v>10</v>
       </c>
+      <c r="AL13" t="s">
+        <v>120</v>
+      </c>
       <c r="AM13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS13">
         <v>1</v>
@@ -5238,13 +6342,13 @@
         <v>1</v>
       </c>
       <c r="AU13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -5259,87 +6363,120 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BD13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
         <v>1</v>
       </c>
       <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
         <v>1</v>
       </c>
       <c r="BI13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" t="s">
-        <v>89</v>
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q14">
         <v>4</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W14">
         <v>5</v>
       </c>
       <c r="X14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y14">
         <v>5</v>
       </c>
       <c r="Z14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA14">
         <v>5</v>
@@ -5348,64 +6485,64 @@
         <v>4</v>
       </c>
       <c r="AC14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD14">
         <v>4</v>
       </c>
       <c r="AE14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14">
         <v>4</v>
       </c>
       <c r="AG14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ14">
         <v>3</v>
       </c>
       <c r="AK14">
-        <v>3</v>
-      </c>
-      <c r="AL14">
         <v>9</v>
       </c>
+      <c r="AL14" t="s">
+        <v>121</v>
+      </c>
       <c r="AM14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="AN14">
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP14">
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>1</v>
       </c>
       <c r="AV14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14">
         <v>0</v>
@@ -5417,99 +6554,135 @@
         <v>0</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BD14">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>1</v>
       </c>
       <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
         <v>1</v>
       </c>
       <c r="BI14">
         <v>1</v>
       </c>
       <c r="BJ14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" t="s">
-        <v>90</v>
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O15">
         <v>4</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W15">
         <v>5</v>
       </c>
       <c r="X15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y15">
         <v>5</v>
       </c>
       <c r="Z15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC15">
         <v>1</v>
@@ -5521,144 +6694,180 @@
         <v>1</v>
       </c>
       <c r="AF15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK15">
-        <v>3</v>
+        <v>10.99</v>
       </c>
       <c r="AL15">
-        <v>10.99</v>
-      </c>
-      <c r="AM15">
-        <v>2</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP15">
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>5</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15">
+        <v>5</v>
+      </c>
+      <c r="BA15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
         <v>10</v>
       </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <v>1</v>
-      </c>
-      <c r="AW15">
-        <v>1</v>
-      </c>
-      <c r="AX15">
-        <v>5</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>1</v>
-      </c>
-      <c r="BA15">
-        <v>5</v>
-      </c>
-      <c r="BB15">
-        <v>1</v>
-      </c>
       <c r="BC15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
         <v>1</v>
       </c>
       <c r="BM15">
         <v>1</v>
       </c>
       <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
         <v>1</v>
       </c>
       <c r="BR15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>34</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" t="s">
-        <v>108</v>
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W16">
         <v>5</v>
@@ -5670,61 +6879,61 @@
         <v>5</v>
       </c>
       <c r="Z16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI16">
         <v>3</v>
       </c>
       <c r="AJ16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK16">
-        <v>2</v>
+        <v>10.99</v>
       </c>
       <c r="AL16">
-        <v>10.99</v>
-      </c>
-      <c r="AM16">
         <v>2.5</v>
       </c>
-      <c r="AN16" t="s">
-        <v>136</v>
+      <c r="AM16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN16">
+        <v>0.5</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS16">
         <v>0</v>
@@ -5733,144 +6942,180 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV16">
         <v>1</v>
       </c>
       <c r="AW16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY16">
         <v>1</v>
       </c>
       <c r="AZ16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BD16">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
       </c>
       <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
         <v>1</v>
       </c>
       <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
         <v>1</v>
       </c>
       <c r="BP16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" t="s">
-        <v>77</v>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y17">
         <v>5</v>
       </c>
       <c r="Z17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ17">
         <v>2</v>
       </c>
       <c r="AK17">
-        <v>2</v>
+        <v>10.99</v>
       </c>
       <c r="AL17">
-        <v>10.99</v>
-      </c>
-      <c r="AM17">
-        <v>2</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -5879,81 +7124,117 @@
         <v>0</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR17">
         <v>5</v>
       </c>
       <c r="AS17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV17">
         <v>2</v>
       </c>
       <c r="AW17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY17">
         <v>1</v>
       </c>
       <c r="AZ17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BA17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BD17">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>1</v>
       </c>
       <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
         <v>1</v>
       </c>
       <c r="BL17">
-        <v>1</v>
-      </c>
-      <c r="BS17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:70">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" t="s">
-        <v>92</v>
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O18">
         <v>5</v>
@@ -5968,10 +7249,10 @@
         <v>5</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U18">
         <v>3</v>
@@ -5983,28 +7264,28 @@
         <v>3</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF18">
         <v>3</v>
@@ -6013,7 +7294,7 @@
         <v>3</v>
       </c>
       <c r="AH18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI18">
         <v>3</v>
@@ -6022,16 +7303,16 @@
         <v>1</v>
       </c>
       <c r="AK18">
-        <v>1</v>
+        <v>20.99</v>
       </c>
       <c r="AL18">
-        <v>20.99</v>
-      </c>
-      <c r="AM18">
-        <v>2</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN18">
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>2</v>
@@ -6040,10 +7321,10 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AR18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AS18">
         <v>2</v>
@@ -6052,10 +7333,10 @@
         <v>2</v>
       </c>
       <c r="AU18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW18">
         <v>2</v>
@@ -6073,60 +7354,96 @@
         <v>2</v>
       </c>
       <c r="BB18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BD18">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>1</v>
       </c>
       <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
         <v>1</v>
       </c>
       <c r="BQ18">
-        <v>1</v>
-      </c>
-      <c r="BS18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:70">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
-        <v>34</v>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19">
         <v>3</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19">
         <v>4</v>
@@ -6141,79 +7458,79 @@
         <v>4</v>
       </c>
       <c r="V19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB19">
         <v>3</v>
       </c>
       <c r="AC19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ19">
         <v>2</v>
       </c>
       <c r="AK19">
-        <v>2</v>
+        <v>25.99</v>
       </c>
       <c r="AL19">
-        <v>25.99</v>
-      </c>
-      <c r="AM19">
-        <v>2</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN19">
+        <v>5</v>
       </c>
       <c r="AO19">
         <v>5</v>
       </c>
       <c r="AP19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AR19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS19">
         <v>2</v>
       </c>
       <c r="AT19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>1</v>
@@ -6225,13 +7542,13 @@
         <v>1</v>
       </c>
       <c r="AX19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA19">
         <v>2</v>
@@ -6240,60 +7557,96 @@
         <v>2</v>
       </c>
       <c r="BC19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BD19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
         <v>1</v>
       </c>
       <c r="BQ19">
-        <v>1</v>
-      </c>
-      <c r="BS19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:70">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
-        <v>34</v>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" t="s">
-        <v>109</v>
+        <v>58</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O20">
         <v>2</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R20">
         <v>2</v>
@@ -6305,97 +7658,97 @@
         <v>2</v>
       </c>
       <c r="U20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X20">
         <v>5</v>
       </c>
       <c r="Y20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC20">
         <v>1</v>
       </c>
       <c r="AD20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20">
         <v>1</v>
       </c>
       <c r="AJ20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK20">
-        <v>2</v>
+        <v>10.99</v>
       </c>
       <c r="AL20">
-        <v>10.99</v>
-      </c>
-      <c r="AM20">
-        <v>2</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV20">
         <v>0</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -6404,108 +7757,144 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
         <v>1</v>
       </c>
       <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
         <v>1</v>
       </c>
       <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
         <v>1</v>
       </c>
       <c r="BR20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:70">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21" t="s">
-        <v>94</v>
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21">
         <v>4</v>
       </c>
       <c r="W21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC21">
         <v>2</v>
       </c>
       <c r="AD21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE21">
         <v>2</v>
       </c>
       <c r="AF21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG21">
         <v>2</v>
       </c>
       <c r="AH21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI21">
         <v>2</v>
@@ -6514,49 +7903,49 @@
         <v>3</v>
       </c>
       <c r="AK21">
-        <v>3</v>
+        <v>20.99</v>
       </c>
       <c r="AL21">
-        <v>20.99</v>
-      </c>
-      <c r="AM21">
-        <v>2</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21">
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21">
         <v>0</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV21">
         <v>1</v>
       </c>
       <c r="AW21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -6568,69 +7957,105 @@
         <v>0</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21">
         <v>1</v>
       </c>
       <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
         <v>1</v>
       </c>
       <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
         <v>1</v>
       </c>
       <c r="BM21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:71">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:70">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
-        <v>38</v>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" t="s">
-        <v>95</v>
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
       </c>
       <c r="N22">
         <v>3</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P22">
         <v>3</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W22">
         <v>5</v>
@@ -6639,67 +8064,67 @@
         <v>5</v>
       </c>
       <c r="Y22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH22">
         <v>3</v>
       </c>
       <c r="AI22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK22">
-        <v>2</v>
+        <v>10.99</v>
       </c>
       <c r="AL22">
-        <v>10.99</v>
-      </c>
-      <c r="AM22">
-        <v>3</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>135</v>
+        <v>3</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN22">
+        <v>2</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>2</v>
@@ -6708,10 +8133,10 @@
         <v>2</v>
       </c>
       <c r="AV22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX22">
         <v>1</v>
@@ -6720,28 +8145,61 @@
         <v>1</v>
       </c>
       <c r="AZ22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA22">
         <v>2</v>
       </c>
       <c r="BB22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BC22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BD22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
         <v>1</v>
       </c>
       <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
         <v>1</v>
       </c>
       <c r="BL22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6751,336 +8209,249 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
+      <c r="B11">
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>32</v>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -7118,10 +8489,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7129,13 +8500,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7143,19 +8514,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7163,10 +8534,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7174,7 +8545,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7182,10 +8553,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7193,7 +8564,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7201,10 +8572,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7212,10 +8583,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7223,10 +8594,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7234,13 +8605,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7248,10 +8619,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7259,7 +8630,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7267,10 +8638,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7278,10 +8649,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7294,7 +8665,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7302,10 +8673,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7313,10 +8684,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7324,7 +8695,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7332,7 +8703,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7361,10 +8732,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7372,10 +8743,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7383,10 +8754,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7394,10 +8765,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7405,7 +8776,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7413,7 +8784,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7421,7 +8792,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7429,7 +8800,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7437,10 +8808,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7448,10 +8819,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7459,10 +8830,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7470,10 +8841,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7481,7 +8852,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7489,7 +8860,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7497,10 +8868,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7508,7 +8879,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7516,7 +8887,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7524,7 +8895,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7532,10 +8903,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7543,7 +8914,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7551,7 +8922,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -7568,8 +8939,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>18</v>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7754,8 +9125,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>20</v>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7933,78 +9304,81 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8071,8 +9445,11 @@
       <c r="V2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8139,8 +9516,11 @@
       <c r="V3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8207,8 +9587,11 @@
       <c r="V4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8275,8 +9658,11 @@
       <c r="V5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8343,8 +9729,11 @@
       <c r="V6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -8411,8 +9800,11 @@
       <c r="V7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -8479,8 +9871,11 @@
       <c r="V8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -8547,8 +9942,11 @@
       <c r="V9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -8615,8 +10013,11 @@
       <c r="V10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -8683,8 +10084,11 @@
       <c r="V11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -8751,8 +10155,11 @@
       <c r="V12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -8819,8 +10226,11 @@
       <c r="V13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -8887,8 +10297,11 @@
       <c r="V14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -8955,8 +10368,11 @@
       <c r="V15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -9023,8 +10439,11 @@
       <c r="V16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -9091,8 +10510,11 @@
       <c r="V17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -9159,8 +10581,11 @@
       <c r="V18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -9227,8 +10652,11 @@
       <c r="V19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -9295,8 +10723,11 @@
       <c r="V20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -9363,8 +10794,11 @@
       <c r="V21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -9429,6 +10863,9 @@
         <v>4</v>
       </c>
       <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
         <v>3</v>
       </c>
     </row>
@@ -9446,8 +10883,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>47</v>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9632,8 +11069,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>50</v>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/assignment1/filtered_data.xlsx
+++ b/assignment1/filtered_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\文档\GitHub\Group_Assignments\assignment1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580E60D9-540A-48C5-8C91-205CEF4D43BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gender" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
     <sheet name="most like to have" sheetId="14" r:id="rId14"/>
     <sheet name="All data" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -450,8 +456,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +520,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -560,7 +574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,9 +606,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,6 +658,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -801,19 +851,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -821,7 +873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -829,7 +881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -837,7 +889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,7 +897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -853,7 +905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,7 +913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,7 +921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -877,7 +929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,7 +937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -893,7 +945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -901,7 +953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -909,7 +961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -917,7 +969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -925,7 +977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -933,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -941,7 +993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -949,7 +1001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -957,7 +1009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -965,7 +1017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -973,7 +1025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -987,19 +1039,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1007,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1015,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1023,7 +1075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1039,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1123,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1131,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1087,7 +1139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1095,7 +1147,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1103,7 +1155,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,7 +1171,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1127,7 +1179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1143,7 +1195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1151,7 +1203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1159,7 +1211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1173,19 +1225,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1245,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1201,7 +1253,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1209,7 +1261,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1217,7 +1269,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1277,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1285,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1241,7 +1293,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1301,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1257,7 +1309,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1265,7 +1317,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +1325,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1333,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1289,7 +1341,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1349,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1357,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1365,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1321,7 +1373,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1329,7 +1381,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1337,7 +1389,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1345,7 +1397,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1359,19 +1411,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D3:D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1387,7 +1444,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1419,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1427,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1443,7 +1500,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1451,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1459,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1467,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1475,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,7 +1548,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1499,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1507,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1515,7 +1572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1523,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1531,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1545,14 +1602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>126</v>
       </c>
@@ -1599,7 +1656,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1699,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1749,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1799,7 +1856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +1906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1899,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1949,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1999,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2049,7 +2106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2099,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2199,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2249,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2299,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2349,7 +2406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2399,7 +2456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2449,7 +2506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2499,7 +2556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2549,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2599,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2655,14 +2712,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>126</v>
       </c>
@@ -2709,7 +2766,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2759,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2809,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2859,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2909,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2959,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3009,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3059,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3109,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3159,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3209,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3259,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -3309,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3359,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3409,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3459,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3509,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3559,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3609,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3659,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3709,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3765,14 +3822,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:BR22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3981,7 +4044,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4184,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4390,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4602,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4805,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5002,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5202,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5399,7 +5462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5599,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -5802,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -6005,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -6211,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -6414,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -6611,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6811,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -7014,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -7208,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -7405,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -7605,7 +7668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -7808,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -8005,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -8208,14 +8271,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -8223,7 +8286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8234,7 +8297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8245,7 +8308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8256,7 +8319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8267,7 +8330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8278,7 +8341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -8289,7 +8352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -8300,7 +8363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -8311,7 +8374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -8322,7 +8385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -8333,7 +8396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -8344,7 +8407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -8355,7 +8418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -8366,7 +8429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -8377,7 +8440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -8388,7 +8451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -8399,7 +8462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -8410,7 +8473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -8421,7 +8484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -8432,7 +8495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -8443,7 +8506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -8460,14 +8523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>6</v>
       </c>
@@ -8484,7 +8547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8495,7 +8558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8509,7 +8572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8529,7 +8592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8540,7 +8603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8548,7 +8611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -8559,7 +8622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -8567,7 +8630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -8578,7 +8641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -8589,7 +8652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -8600,7 +8663,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -8614,7 +8677,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -8625,7 +8688,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -8633,7 +8696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -8644,7 +8707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -8655,12 +8718,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -8668,7 +8731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -8679,7 +8742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -8690,7 +8753,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -8698,7 +8761,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -8712,14 +8775,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>13</v>
       </c>
@@ -8727,7 +8790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8738,7 +8801,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8749,7 +8812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8760,7 +8823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8771,7 +8834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8779,7 +8842,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -8787,7 +8850,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -8795,7 +8858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -8803,7 +8866,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -8814,7 +8877,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -8825,7 +8888,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -8836,7 +8899,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -8847,7 +8910,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -8855,7 +8918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -8863,7 +8926,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -8874,7 +8937,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -8882,7 +8945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -8890,7 +8953,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -8898,7 +8961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -8909,7 +8972,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -8917,7 +8980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -8931,19 +8994,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8951,7 +9014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8959,7 +9022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8967,7 +9030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8975,7 +9038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8983,7 +9046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -8991,7 +9054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -8999,7 +9062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -9007,7 +9070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -9015,7 +9078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -9023,7 +9086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -9031,7 +9094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -9039,7 +9102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -9047,7 +9110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -9055,7 +9118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -9063,7 +9126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -9071,7 +9134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -9079,7 +9142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -9087,7 +9150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -9095,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -9103,7 +9166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -9117,19 +9180,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9137,7 +9200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9145,7 +9208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9153,7 +9216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9161,7 +9224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -9169,7 +9232,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -9177,7 +9240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -9185,7 +9248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -9193,7 +9256,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -9201,7 +9264,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -9209,7 +9272,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -9217,7 +9280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -9225,7 +9288,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -9233,7 +9296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -9241,7 +9304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -9249,7 +9312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -9257,7 +9320,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -9265,7 +9328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -9273,7 +9336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -9281,7 +9344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -9289,7 +9352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -9303,14 +9366,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -9378,7 +9441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9449,7 +9512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9520,7 +9583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9591,7 +9654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9662,7 +9725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -9733,7 +9796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -9804,7 +9867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -9875,7 +9938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -9946,7 +10009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -10017,7 +10080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -10088,7 +10151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -10159,7 +10222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -10230,7 +10293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -10301,7 +10364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -10372,7 +10435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -10443,7 +10506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -10514,7 +10577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -10585,7 +10648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -10656,7 +10719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -10727,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -10798,7 +10861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -10875,19 +10938,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10895,7 +10958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -10903,7 +10966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -10911,7 +10974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10919,7 +10982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -10927,7 +10990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -10935,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -10943,7 +11006,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -10951,7 +11014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -10959,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -10967,7 +11030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -10975,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -10983,7 +11046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -10991,7 +11054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -10999,7 +11062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -11007,7 +11070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -11015,7 +11078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -11023,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -11031,7 +11094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -11039,7 +11102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -11047,7 +11110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -11061,19 +11124,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -11081,7 +11144,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -11089,7 +11152,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11097,7 +11160,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -11105,7 +11168,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -11113,7 +11176,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -11121,7 +11184,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -11129,7 +11192,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -11137,7 +11200,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -11145,7 +11208,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -11153,7 +11216,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -11161,7 +11224,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -11169,7 +11232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -11177,7 +11240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -11185,7 +11248,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -11193,7 +11256,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -11201,7 +11264,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -11209,7 +11272,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -11217,7 +11280,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -11225,7 +11288,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -11233,7 +11296,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>

--- a/assignment1/filtered_data.xlsx
+++ b/assignment1/filtered_data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\文档\GitHub\Group_Assignments\assignment1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580E60D9-540A-48C5-8C91-205CEF4D43BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Gender" sheetId="1" r:id="rId1"/>
@@ -29,12 +23,12 @@
     <sheet name="most like to have" sheetId="14" r:id="rId14"/>
     <sheet name="All data" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="118">
   <si>
     <t>Gender</t>
   </si>
@@ -123,199 +117,136 @@
     <t>Battery</t>
   </si>
   <si>
-    <t>electric powered</t>
-  </si>
-  <si>
-    <t>comfortable handle</t>
-  </si>
-  <si>
-    <t>fairly small</t>
-  </si>
-  <si>
-    <t>cleans teeth well</t>
+    <t>Likes</t>
+  </si>
+  <si>
+    <t>electric powered,replaceable brush</t>
+  </si>
+  <si>
+    <t>comfortable handle,cleans teeth well,replaceable brush</t>
+  </si>
+  <si>
+    <t>fairly small,rubberized grip,indicator bristles,battery included,good price</t>
+  </si>
+  <si>
+    <t>cleans teeth well,almost same price as regular brush</t>
   </si>
   <si>
     <t>Cleans teeth well</t>
   </si>
   <si>
+    <t>cleans teeth well,replaceable brush</t>
+  </si>
+  <si>
     <t>Soft and medium bristles</t>
   </si>
   <si>
-    <t>Rotating power head</t>
-  </si>
-  <si>
-    <t>Looks great</t>
-  </si>
-  <si>
-    <t>Small handle compared to other electrical toothbrush</t>
-  </si>
-  <si>
-    <t>Easy to use, don’t need to work too hard</t>
-  </si>
-  <si>
-    <t>Cheap</t>
+    <t>Rotating power head,Replaceable Brushhead</t>
+  </si>
+  <si>
+    <t>Looks great,Innovative aspects for cleaning teeth (Criss Corss bristles,replaceable brushhead, indicator bristles, brush gead type/colors)</t>
+  </si>
+  <si>
+    <t>Small handle compared to other electrical toothbrush,Dual vibration</t>
+  </si>
+  <si>
+    <t>Easy to use, don’t need to work too hard,Both soft and Medium,Multi Angled Bristles</t>
+  </si>
+  <si>
+    <t>Cheap,Operates on one battery only</t>
   </si>
   <si>
     <t>Seems to clean better</t>
   </si>
   <si>
-    <t>rotating head</t>
-  </si>
-  <si>
-    <t>only one battery</t>
+    <t>rotating head,both portions vibrate</t>
+  </si>
+  <si>
+    <t>only one battery,bristles fade halfway</t>
   </si>
   <si>
     <t>All, especially indicator bristles</t>
   </si>
   <si>
-    <t>Replacable Brush head</t>
+    <t>Replacable Brush head,Bristles Indicator</t>
+  </si>
+  <si>
+    <t>Grip,Replacable Head</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Reaches deep btw teeth</t>
+  </si>
+  <si>
+    <t>Dislikes</t>
+  </si>
+  <si>
+    <t>having to change batteries,no stand and non-standard shape</t>
+  </si>
+  <si>
+    <t>having to change batteries,heavy</t>
+  </si>
+  <si>
+    <t>2-different bristles,no battery indicator</t>
+  </si>
+  <si>
+    <t>have to change battery,not much color selection</t>
+  </si>
+  <si>
+    <t>Bigger hand grip</t>
+  </si>
+  <si>
+    <t>Bigger than manual</t>
+  </si>
+  <si>
+    <t>Battery replacement</t>
+  </si>
+  <si>
+    <t>Color - need more variety</t>
+  </si>
+  <si>
+    <t>Non rechargeable,No studies showing the innovative way of cleaning better thatn the conventional way</t>
+  </si>
+  <si>
+    <t>No stand/can't stand up by itself,Plain colors and design</t>
+  </si>
+  <si>
+    <t>Can't put it standing up, too wide to put in a regular holder,Short battery life</t>
+  </si>
+  <si>
+    <t>Looks ordinary,No way to strore replacement heads, replacement batteries etc</t>
+  </si>
+  <si>
+    <t>Ugly!</t>
+  </si>
+  <si>
+    <t>higher price</t>
+  </si>
+  <si>
+    <t>tool reqd. to change head,handle size big</t>
+  </si>
+  <si>
+    <t>battery cant be recharged</t>
+  </si>
+  <si>
+    <t>electric brushes are ,ineffective according</t>
+  </si>
+  <si>
+    <t>price high</t>
+  </si>
+  <si>
+    <t>heavy due to battery wt.</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Price expectation</t>
   </si>
   <si>
     <t>Grip</t>
-  </si>
-  <si>
-    <t>Reaches deep btw teeth</t>
-  </si>
-  <si>
-    <t>replaceable brush</t>
-  </si>
-  <si>
-    <t>rubberized grip</t>
-  </si>
-  <si>
-    <t>almost same price as regular brush</t>
-  </si>
-  <si>
-    <t>Replaceable Brushhead</t>
-  </si>
-  <si>
-    <t>Innovative aspects for cleaning teeth (Criss Corss bristles,replaceable brushhead, indicator bristles, brush gead type/colors)</t>
-  </si>
-  <si>
-    <t>Dual vibration</t>
-  </si>
-  <si>
-    <t>Both soft and Medium</t>
-  </si>
-  <si>
-    <t>Operates on one battery only</t>
-  </si>
-  <si>
-    <t>both portions vibrate</t>
-  </si>
-  <si>
-    <t>bristles fade halfway</t>
-  </si>
-  <si>
-    <t>Bristles Indicator</t>
-  </si>
-  <si>
-    <t>Replacable Head</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>indicator bristles</t>
-  </si>
-  <si>
-    <t>Multi Angled Bristles</t>
-  </si>
-  <si>
-    <t>battery included</t>
-  </si>
-  <si>
-    <t>good price</t>
-  </si>
-  <si>
-    <t>having to change batteries</t>
-  </si>
-  <si>
-    <t>2-different bristles</t>
-  </si>
-  <si>
-    <t>have to change battery</t>
-  </si>
-  <si>
-    <t>Non rechargeable</t>
-  </si>
-  <si>
-    <t>No stand/can't stand up by itself</t>
-  </si>
-  <si>
-    <t>Can't put it standing up, too wide to put in a regular holder</t>
-  </si>
-  <si>
-    <t>Looks ordinary</t>
-  </si>
-  <si>
-    <t>Ugly!</t>
-  </si>
-  <si>
-    <t>higher price</t>
-  </si>
-  <si>
-    <t>tool reqd. to change head</t>
-  </si>
-  <si>
-    <t>battery cant be recharged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electric brushes are </t>
-  </si>
-  <si>
-    <t>price high</t>
-  </si>
-  <si>
-    <t>heavy due to battery wt.</t>
-  </si>
-  <si>
-    <t>no stand and non-standard shape</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>no battery indicator</t>
-  </si>
-  <si>
-    <t>not much color selection</t>
-  </si>
-  <si>
-    <t>Bigger hand grip</t>
-  </si>
-  <si>
-    <t>Bigger than manual</t>
-  </si>
-  <si>
-    <t>Battery replacement</t>
-  </si>
-  <si>
-    <t>Color - need more variety</t>
-  </si>
-  <si>
-    <t>No studies showing the innovative way of cleaning better thatn the conventional way</t>
-  </si>
-  <si>
-    <t>Plain colors and design</t>
-  </si>
-  <si>
-    <t>Short battery life</t>
-  </si>
-  <si>
-    <t>No way to strore replacement heads, replacement batteries etc</t>
-  </si>
-  <si>
-    <t>handle size big</t>
-  </si>
-  <si>
-    <t>ineffective according</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Price expectation</t>
   </si>
   <si>
     <t>Weight</t>
@@ -456,8 +387,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,14 +451,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -574,7 +497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,27 +529,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,24 +563,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -851,21 +738,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -873,7 +758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -881,7 +766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -889,7 +774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,7 +782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -905,7 +790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,7 +798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,7 +806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,7 +814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -937,7 +822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,7 +830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,7 +838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -961,7 +846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -969,7 +854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -977,7 +862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -985,7 +870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -993,7 +878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1001,7 +886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1009,7 +894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1039,19 +924,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1099,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1107,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1115,47 +1000,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1056,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1179,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1187,7 +1072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1195,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1211,7 +1096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1225,184 +1110,184 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1411,24 +1296,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D3:D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1324,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1452,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1468,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1476,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1492,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1500,7 +1380,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1516,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1532,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1548,7 +1428,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1556,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1564,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1572,7 +1452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1580,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1588,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1602,61 +1482,61 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1706,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1756,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1806,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1856,7 +1736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1956,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2006,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2056,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2106,7 +1986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2156,7 +2036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2206,7 +2086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2256,7 +2136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2306,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2356,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2406,7 +2286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2456,7 +2336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2506,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2556,7 +2436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2606,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2656,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2712,61 +2592,61 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2816,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2866,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2916,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2966,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3016,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3066,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3116,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3166,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3216,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3266,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3316,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -3366,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3416,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3466,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3516,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3566,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3616,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3666,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3716,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3766,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3822,20 +3702,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:BR22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3845,206 +3719,191 @@
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1">
-        <v>14</v>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="BD1" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4058,28 +3917,37 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>78</v>
+        <v>51</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P2">
         <v>5</v>
@@ -4088,7 +3956,7 @@
         <v>5</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2">
         <v>5</v>
@@ -4097,16 +3965,16 @@
         <v>5</v>
       </c>
       <c r="U2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>5</v>
@@ -4115,7 +3983,7 @@
         <v>3</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB2">
         <v>3</v>
@@ -4124,55 +3992,55 @@
         <v>1</v>
       </c>
       <c r="AD2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE2">
         <v>3</v>
       </c>
       <c r="AF2">
-        <v>4</v>
+        <v>10.99</v>
       </c>
       <c r="AG2">
-        <v>3</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>102</v>
       </c>
       <c r="AI2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>10.99</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -4184,31 +4052,31 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB2">
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2">
         <v>0</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2">
         <v>0</v>
@@ -4217,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
         <v>0</v>
@@ -4231,23 +4099,8 @@
       <c r="BM2">
         <v>0</v>
       </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>1</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:65">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4261,70 +4114,76 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S3">
         <v>5</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>4</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -4333,85 +4192,85 @@
         <v>4</v>
       </c>
       <c r="AE3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF3">
-        <v>4</v>
+        <v>6.99</v>
       </c>
       <c r="AG3">
-        <v>5</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>102</v>
       </c>
       <c r="AI3">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="AJ3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>6.99</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>2</v>
       </c>
-      <c r="AM3" t="s">
-        <v>123</v>
+      <c r="AM3">
+        <v>2</v>
       </c>
       <c r="AN3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>2</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY3">
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3">
         <v>0</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3">
         <v>0</v>
@@ -4429,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL3">
         <v>0</v>
@@ -4437,23 +4296,8 @@
       <c r="BM3">
         <v>0</v>
       </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>1</v>
-      </c>
-      <c r="BP3">
-        <v>1</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:65">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4467,40 +4311,40 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -4512,121 +4356,121 @@
         <v>5</v>
       </c>
       <c r="T4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD4">
         <v>4</v>
       </c>
       <c r="AE4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF4">
-        <v>3</v>
+        <v>10.99</v>
       </c>
       <c r="AG4">
-        <v>4</v>
-      </c>
-      <c r="AH4">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>103</v>
       </c>
       <c r="AI4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>10.99</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>2</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4">
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -4635,13 +4479,13 @@
         <v>0</v>
       </c>
       <c r="BI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -4649,23 +4493,8 @@
       <c r="BM4">
         <v>0</v>
       </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>1</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:65">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4679,115 +4508,124 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <v>5</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>5</v>
       </c>
       <c r="X5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>5</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC5">
         <v>2</v>
       </c>
       <c r="AD5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF5">
-        <v>5</v>
+        <v>20.99</v>
       </c>
       <c r="AG5">
-        <v>3</v>
-      </c>
-      <c r="AH5">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>102</v>
       </c>
       <c r="AI5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>20.99</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>123</v>
+        <v>15</v>
+      </c>
+      <c r="AM5">
+        <v>0.5</v>
       </c>
       <c r="AN5">
         <v>2</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AR5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS5">
         <v>2</v>
@@ -4799,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW5">
         <v>1</v>
@@ -4808,7 +4646,7 @@
         <v>2</v>
       </c>
       <c r="AY5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -4817,10 +4655,10 @@
         <v>1</v>
       </c>
       <c r="BB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>1</v>
@@ -4829,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="BF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -4838,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
         <v>0</v>
@@ -4852,23 +4690,8 @@
       <c r="BM5">
         <v>0</v>
       </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:65">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4882,40 +4705,55 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4.5</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V6">
         <v>2</v>
@@ -4924,58 +4762,58 @@
         <v>2</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y6">
         <v>2</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>4</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE6">
         <v>3</v>
       </c>
       <c r="AF6">
-        <v>3</v>
+        <v>10.99</v>
       </c>
       <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>102</v>
       </c>
       <c r="AI6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>10.99</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>2</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
         <v>1</v>
@@ -4984,40 +4822,40 @@
         <v>1</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV6">
         <v>1</v>
       </c>
       <c r="AW6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BD6">
         <v>0</v>
@@ -5035,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
         <v>0</v>
@@ -5044,28 +4882,13 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>1</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>1</v>
-      </c>
-      <c r="BR6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5079,28 +4902,40 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -5112,64 +4947,64 @@
         <v>5</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD7">
         <v>3</v>
       </c>
       <c r="AE7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>5</v>
+        <v>10.99</v>
       </c>
       <c r="AG7">
-        <v>4</v>
-      </c>
-      <c r="AH7">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>103</v>
       </c>
       <c r="AI7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>10.99</v>
+        <v>1</v>
       </c>
       <c r="AL7">
         <v>2</v>
       </c>
-      <c r="AM7" t="s">
-        <v>124</v>
+      <c r="AM7">
+        <v>0</v>
       </c>
       <c r="AN7">
         <v>1</v>
@@ -5178,13 +5013,13 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7">
         <v>1</v>
@@ -5193,13 +5028,13 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -5208,40 +5043,40 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC7">
         <v>1</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7">
         <v>0</v>
       </c>
       <c r="BF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7">
         <v>0</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ7">
         <v>0</v>
       </c>
       <c r="BK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -5249,23 +5084,8 @@
       <c r="BM7">
         <v>0</v>
       </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:65">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5279,112 +5099,127 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC8">
         <v>2</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AF8">
-        <v>5</v>
+        <v>10.99</v>
       </c>
       <c r="AG8">
-        <v>4</v>
-      </c>
-      <c r="AH8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>102</v>
       </c>
       <c r="AI8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>10.99</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
-      <c r="AM8" t="s">
-        <v>123</v>
+      <c r="AM8">
+        <v>0</v>
       </c>
       <c r="AN8">
         <v>1</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -5396,13 +5231,13 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -5411,10 +5246,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8">
         <v>0</v>
@@ -5426,13 +5261,13 @@
         <v>0</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8">
         <v>0</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
         <v>0</v>
@@ -5441,28 +5276,13 @@
         <v>0</v>
       </c>
       <c r="BL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>1</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5476,40 +5296,52 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3.99</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>3.99</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9">
         <v>4</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -5518,91 +5350,91 @@
         <v>4</v>
       </c>
       <c r="W9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC9">
         <v>1</v>
       </c>
       <c r="AD9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF9">
-        <v>3</v>
+        <v>20.99</v>
       </c>
       <c r="AG9">
-        <v>3</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>102</v>
       </c>
       <c r="AI9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AK9">
-        <v>20.99</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>2</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>123</v>
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AO9">
+        <v>0.3</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
         <v>0.2</v>
       </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0.2</v>
-      </c>
-      <c r="AT9">
-        <v>0.3</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
       <c r="AX9">
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -5611,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9">
         <v>1</v>
@@ -5629,10 +5461,10 @@
         <v>0</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9">
         <v>0</v>
@@ -5646,23 +5478,8 @@
       <c r="BM9">
         <v>0</v>
       </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:65">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -5676,28 +5493,37 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" t="s">
-        <v>86</v>
+        <v>59</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>5.99</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>5.99</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <v>5</v>
@@ -5706,91 +5532,91 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>5</v>
       </c>
       <c r="Z10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC10">
         <v>1</v>
       </c>
       <c r="AD10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>5</v>
-      </c>
-      <c r="AG10">
-        <v>5</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
+        <v>10.99</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>102</v>
       </c>
       <c r="AI10">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>10.99</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>5</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS10">
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>2</v>
@@ -5799,16 +5625,16 @@
         <v>1</v>
       </c>
       <c r="AW10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA10">
         <v>1</v>
@@ -5817,16 +5643,16 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10">
         <v>0</v>
       </c>
       <c r="BF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -5835,13 +5661,13 @@
         <v>0</v>
       </c>
       <c r="BI10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10">
         <v>0</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10">
         <v>0</v>
@@ -5849,23 +5675,8 @@
       <c r="BM10">
         <v>0</v>
       </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>1</v>
-      </c>
-      <c r="BQ10">
-        <v>0</v>
-      </c>
-      <c r="BR10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:65">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5879,133 +5690,142 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>87</v>
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>6.99</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
       </c>
       <c r="L11">
         <v>4</v>
       </c>
       <c r="M11">
-        <v>6.99</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11">
         <v>5</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11">
         <v>5</v>
       </c>
       <c r="W11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD11">
         <v>4</v>
       </c>
       <c r="AE11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF11">
-        <v>4</v>
-      </c>
-      <c r="AG11">
-        <v>5</v>
-      </c>
-      <c r="AH11">
-        <v>3</v>
+        <v>7.99</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>102</v>
       </c>
       <c r="AI11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>7.99</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="AL11">
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <v>0.5</v>
       </c>
       <c r="AN11">
         <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11">
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY11">
         <v>0</v>
@@ -6014,31 +5834,31 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11">
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11">
         <v>0</v>
       </c>
       <c r="BF11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11">
         <v>0</v>
       </c>
       <c r="BH11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ11">
         <v>0</v>
@@ -6052,23 +5872,8 @@
       <c r="BM11">
         <v>0</v>
       </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
-        <v>0</v>
-      </c>
-      <c r="BR11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:65">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -6082,169 +5887,175 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
         <v>61</v>
       </c>
-      <c r="J12" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" t="s">
-        <v>88</v>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O12">
         <v>4</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q12">
         <v>5</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W12">
         <v>4</v>
       </c>
       <c r="X12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z12">
         <v>3</v>
       </c>
       <c r="AA12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>4</v>
-      </c>
-      <c r="AG12">
-        <v>3</v>
-      </c>
-      <c r="AH12">
-        <v>2</v>
+        <v>10.99</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>102</v>
       </c>
       <c r="AI12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
         <v>1</v>
       </c>
       <c r="AK12">
-        <v>10.99</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="AL12">
+        <v>2</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP12">
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS12">
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12">
         <v>2</v>
       </c>
       <c r="AX12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12">
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12">
         <v>0</v>
       </c>
       <c r="BF12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12">
         <v>0</v>
       </c>
       <c r="BI12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ12">
         <v>0</v>
@@ -6253,28 +6064,13 @@
         <v>0</v>
       </c>
       <c r="BL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM12">
         <v>0</v>
       </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
-        <v>0</v>
-      </c>
-      <c r="BR12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:65">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -6288,28 +6084,37 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" t="s">
-        <v>89</v>
+        <v>62</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>5.99</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>5.99</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P13">
         <v>4</v>
@@ -6318,37 +6123,37 @@
         <v>5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T13">
         <v>5</v>
       </c>
       <c r="U13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA13">
         <v>4</v>
       </c>
       <c r="AB13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC13">
         <v>3</v>
@@ -6357,94 +6162,94 @@
         <v>3</v>
       </c>
       <c r="AE13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF13">
-        <v>4</v>
-      </c>
-      <c r="AG13">
-        <v>3</v>
-      </c>
-      <c r="AH13">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>102</v>
       </c>
       <c r="AI13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
         <v>2</v>
       </c>
       <c r="AK13">
-        <v>10</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>123</v>
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>4</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
       </c>
       <c r="AN13">
         <v>1</v>
       </c>
       <c r="AO13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP13">
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>0</v>
       </c>
       <c r="AV13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13">
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13">
         <v>0</v>
       </c>
       <c r="BF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13">
         <v>0</v>
       </c>
       <c r="BH13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI13">
         <v>0</v>
@@ -6461,23 +6266,8 @@
       <c r="BM13">
         <v>0</v>
       </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:65">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -6491,64 +6281,79 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" t="s">
-        <v>71</v>
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
       </c>
       <c r="L14">
         <v>4</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <v>3</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14">
         <v>4</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD14">
         <v>4</v>
@@ -6557,94 +6362,94 @@
         <v>3</v>
       </c>
       <c r="AF14">
-        <v>4</v>
-      </c>
-      <c r="AG14">
-        <v>2</v>
-      </c>
-      <c r="AH14">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>102</v>
       </c>
       <c r="AI14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK14">
-        <v>9</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>123</v>
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>3</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
       </c>
       <c r="AN14">
         <v>2</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV14">
         <v>0</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY14">
         <v>0</v>
       </c>
       <c r="AZ14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14">
         <v>0</v>
       </c>
       <c r="BF14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14">
         <v>0</v>
       </c>
       <c r="BH14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ14">
         <v>0</v>
@@ -6658,23 +6463,8 @@
       <c r="BM14">
         <v>0</v>
       </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
-      <c r="BR14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:65">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6688,145 +6478,157 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M15">
         <v>4</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q15">
         <v>5</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z15">
         <v>1</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC15">
         <v>1</v>
       </c>
       <c r="AD15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF15">
-        <v>4</v>
+        <v>10.99</v>
       </c>
       <c r="AG15">
-        <v>5</v>
-      </c>
-      <c r="AH15">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>102</v>
       </c>
       <c r="AI15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK15">
-        <v>10.99</v>
+        <v>2</v>
       </c>
       <c r="AL15">
-        <v>2</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>123</v>
+        <v>10</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
       </c>
       <c r="AN15">
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>5</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>5</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
         <v>10</v>
       </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>1</v>
-      </c>
-      <c r="AU15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <v>1</v>
-      </c>
-      <c r="AW15">
-        <v>5</v>
-      </c>
       <c r="AX15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15">
         <v>0</v>
@@ -6838,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="BG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI15">
         <v>0</v>
@@ -6856,25 +6658,10 @@
         <v>1</v>
       </c>
       <c r="BM15">
-        <v>1</v>
-      </c>
-      <c r="BN15">
-        <v>0</v>
-      </c>
-      <c r="BO15">
-        <v>0</v>
-      </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
-        <v>1</v>
-      </c>
-      <c r="BR15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -6888,31 +6675,40 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" t="s">
-        <v>90</v>
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <v>5</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -6921,37 +6717,37 @@
         <v>5</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z16">
         <v>2</v>
       </c>
       <c r="AA16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD16">
         <v>3</v>
@@ -6960,31 +6756,31 @@
         <v>2</v>
       </c>
       <c r="AF16">
-        <v>5</v>
+        <v>10.99</v>
       </c>
       <c r="AG16">
-        <v>3</v>
-      </c>
-      <c r="AH16">
-        <v>3</v>
+        <v>2.5</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>103</v>
       </c>
       <c r="AI16">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AJ16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>10.99</v>
+        <v>1</v>
       </c>
       <c r="AL16">
-        <v>2.5</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>124</v>
+        <v>5</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -6993,19 +6789,19 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -7014,22 +6810,22 @@
         <v>5</v>
       </c>
       <c r="AX16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA16">
         <v>1</v>
       </c>
       <c r="BB16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -7038,10 +6834,10 @@
         <v>0</v>
       </c>
       <c r="BF16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16">
         <v>0</v>
@@ -7050,34 +6846,19 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK16">
         <v>0</v>
       </c>
       <c r="BL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM16">
         <v>0</v>
       </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16">
-        <v>1</v>
-      </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
-      <c r="BQ16">
-        <v>0</v>
-      </c>
-      <c r="BR16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:65">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -7090,20 +6871,35 @@
       <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="J17" t="s">
-        <v>59</v>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2.5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P17">
         <v>2</v>
@@ -7112,10 +6908,10 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17">
         <v>5</v>
@@ -7124,106 +6920,106 @@
         <v>2</v>
       </c>
       <c r="V17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF17">
-        <v>5</v>
+        <v>10.99</v>
       </c>
       <c r="AG17">
-        <v>1</v>
-      </c>
-      <c r="AH17">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>103</v>
       </c>
       <c r="AI17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>10.99</v>
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>2</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>124</v>
+        <v>5</v>
+      </c>
+      <c r="AM17">
+        <v>5</v>
       </c>
       <c r="AN17">
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>5</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17">
         <v>1</v>
       </c>
       <c r="AU17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV17">
         <v>2</v>
       </c>
       <c r="AW17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -7247,31 +7043,16 @@
         <v>0</v>
       </c>
       <c r="BK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL17">
         <v>0</v>
       </c>
       <c r="BM17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>0</v>
-      </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -7285,61 +7066,76 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" t="s">
-        <v>74</v>
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U18">
         <v>3</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z18">
         <v>3</v>
       </c>
       <c r="AA18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC18">
         <v>1</v>
@@ -7348,31 +7144,31 @@
         <v>3</v>
       </c>
       <c r="AE18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF18">
-        <v>3</v>
+        <v>20.99</v>
       </c>
       <c r="AG18">
-        <v>3</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>102</v>
       </c>
       <c r="AI18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK18">
-        <v>20.99</v>
+        <v>2</v>
       </c>
       <c r="AL18">
-        <v>2</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>123</v>
+        <v>10</v>
+      </c>
+      <c r="AM18">
+        <v>2</v>
       </c>
       <c r="AN18">
         <v>2</v>
@@ -7381,10 +7177,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>2</v>
@@ -7396,31 +7192,31 @@
         <v>2</v>
       </c>
       <c r="AU18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV18">
         <v>2</v>
       </c>
       <c r="AW18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX18">
         <v>2</v>
       </c>
       <c r="AY18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD18">
         <v>0</v>
@@ -7429,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="BF18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -7444,31 +7240,16 @@
         <v>0</v>
       </c>
       <c r="BK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18">
         <v>0</v>
       </c>
       <c r="BM18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>0</v>
-      </c>
-      <c r="BO18">
-        <v>0</v>
-      </c>
-      <c r="BP18">
-        <v>1</v>
-      </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
-      <c r="BR18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -7482,34 +7263,46 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19">
         <v>4</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S19">
         <v>4</v>
@@ -7518,76 +7311,76 @@
         <v>4</v>
       </c>
       <c r="U19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>3</v>
       </c>
       <c r="X19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>4</v>
       </c>
       <c r="Z19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB19">
         <v>3</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF19">
-        <v>3</v>
+        <v>25.99</v>
       </c>
       <c r="AG19">
-        <v>3</v>
-      </c>
-      <c r="AH19">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>102</v>
       </c>
       <c r="AI19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK19">
-        <v>25.99</v>
+        <v>2</v>
       </c>
       <c r="AL19">
-        <v>2</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>123</v>
+        <v>5</v>
+      </c>
+      <c r="AM19">
+        <v>2</v>
       </c>
       <c r="AN19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AR19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS19">
         <v>2</v>
@@ -7596,34 +7389,34 @@
         <v>1</v>
       </c>
       <c r="AU19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY19">
         <v>1</v>
       </c>
       <c r="AZ19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19">
         <v>0</v>
@@ -7644,31 +7437,16 @@
         <v>0</v>
       </c>
       <c r="BK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19">
         <v>0</v>
       </c>
       <c r="BM19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>0</v>
-      </c>
-      <c r="BO19">
-        <v>0</v>
-      </c>
-      <c r="BP19">
-        <v>1</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -7682,19 +7460,28 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" t="s">
-        <v>91</v>
+        <v>67</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>2</v>
@@ -7706,97 +7493,97 @@
         <v>2</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>5</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S20">
         <v>5</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U20">
         <v>1</v>
       </c>
       <c r="V20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <v>1</v>
       </c>
       <c r="AD20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF20">
-        <v>5</v>
+        <v>10.99</v>
       </c>
       <c r="AG20">
-        <v>1</v>
-      </c>
-      <c r="AH20">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>103</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>10.99</v>
+        <v>1</v>
       </c>
       <c r="AL20">
-        <v>2</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>124</v>
+        <v>5</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
       </c>
       <c r="AN20">
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AR20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -7805,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="AW20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX20">
         <v>1</v>
@@ -7814,28 +7601,28 @@
         <v>0</v>
       </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20">
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20">
         <v>0</v>
       </c>
       <c r="BE20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20">
         <v>0</v>
       </c>
       <c r="BG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20">
         <v>0</v>
@@ -7855,23 +7642,8 @@
       <c r="BM20">
         <v>0</v>
       </c>
-      <c r="BN20">
-        <v>0</v>
-      </c>
-      <c r="BO20">
-        <v>0</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
-        <v>1</v>
-      </c>
-      <c r="BR20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:65">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -7884,50 +7656,65 @@
       <c r="D21" t="s">
         <v>28</v>
       </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
       <c r="F21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>4</v>
       </c>
       <c r="X21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <v>3</v>
@@ -7936,79 +7723,79 @@
         <v>2</v>
       </c>
       <c r="AA21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF21">
-        <v>4</v>
+        <v>20.99</v>
       </c>
       <c r="AG21">
         <v>2</v>
       </c>
-      <c r="AH21">
-        <v>3</v>
+      <c r="AH21" t="s">
+        <v>103</v>
       </c>
       <c r="AI21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>20.99</v>
+        <v>1</v>
       </c>
       <c r="AL21">
         <v>2</v>
       </c>
-      <c r="AM21" t="s">
-        <v>124</v>
+      <c r="AM21">
+        <v>1</v>
       </c>
       <c r="AN21">
         <v>0</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21">
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21">
         <v>0</v>
       </c>
       <c r="AU21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX21">
         <v>1</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -8017,13 +7804,13 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21">
         <v>0</v>
@@ -8047,28 +7834,13 @@
         <v>0</v>
       </c>
       <c r="BL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21">
         <v>0</v>
       </c>
-      <c r="BN21">
-        <v>0</v>
-      </c>
-      <c r="BO21">
-        <v>0</v>
-      </c>
-      <c r="BP21">
-        <v>0</v>
-      </c>
-      <c r="BQ21">
-        <v>0</v>
-      </c>
-      <c r="BR21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:65">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -8082,25 +7854,40 @@
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" t="s">
-        <v>77</v>
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O22">
         <v>3</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -8109,127 +7896,127 @@
         <v>5</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA22">
         <v>3</v>
       </c>
       <c r="AB22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22">
-        <v>3</v>
+        <v>10.99</v>
       </c>
       <c r="AG22">
-        <v>4</v>
-      </c>
-      <c r="AH22">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>102</v>
       </c>
       <c r="AI22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>10.99</v>
+        <v>2</v>
       </c>
       <c r="AL22">
-        <v>3</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>123</v>
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
       </c>
       <c r="AN22">
         <v>2</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22">
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR22">
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>2</v>
       </c>
       <c r="AV22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AX22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY22">
         <v>1</v>
       </c>
       <c r="AZ22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BC22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22">
         <v>0</v>
       </c>
       <c r="BF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22">
         <v>0</v>
@@ -8241,27 +8028,12 @@
         <v>0</v>
       </c>
       <c r="BK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL22">
         <v>0</v>
       </c>
       <c r="BM22">
-        <v>0</v>
-      </c>
-      <c r="BN22">
-        <v>0</v>
-      </c>
-      <c r="BO22">
-        <v>0</v>
-      </c>
-      <c r="BP22">
-        <v>0</v>
-      </c>
-      <c r="BQ22">
-        <v>0</v>
-      </c>
-      <c r="BR22">
         <v>0</v>
       </c>
     </row>
@@ -8271,14 +8043,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -8286,7 +8058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8297,7 +8069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8308,7 +8080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8319,7 +8091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8330,7 +8102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8341,7 +8113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -8352,7 +8124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -8363,7 +8135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -8374,7 +8146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -8385,7 +8157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -8396,7 +8168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -8407,7 +8179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -8418,7 +8190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -8429,7 +8201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -8440,7 +8212,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -8451,7 +8223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -8462,7 +8234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -8473,7 +8245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -8484,7 +8256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -8495,7 +8267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -8506,7 +8278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -8523,250 +8295,181 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -8775,217 +8478,184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -8994,19 +8664,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9014,7 +8684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9022,7 +8692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9030,7 +8700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9038,7 +8708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -9046,7 +8716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -9054,7 +8724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -9062,7 +8732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -9070,7 +8740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -9078,7 +8748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -9086,7 +8756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -9094,7 +8764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -9102,7 +8772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -9110,7 +8780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -9118,7 +8788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -9126,7 +8796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -9134,7 +8804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -9142,7 +8812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -9150,7 +8820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -9158,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -9166,7 +8836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -9180,19 +8850,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9200,7 +8870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9208,7 +8878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9216,7 +8886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9224,7 +8894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -9232,7 +8902,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -9240,7 +8910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -9248,7 +8918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -9256,7 +8926,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -9264,7 +8934,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -9272,7 +8942,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -9280,7 +8950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -9288,7 +8958,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -9296,7 +8966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -9304,7 +8974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -9312,7 +8982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -9320,7 +8990,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -9328,7 +8998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -9336,7 +9006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -9344,7 +9014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -9352,7 +9022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -9366,82 +9036,82 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9512,7 +9182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9583,7 +9253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9654,7 +9324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9725,7 +9395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -9796,7 +9466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -9867,7 +9537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -9938,7 +9608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -10009,7 +9679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -10080,7 +9750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -10151,7 +9821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -10222,7 +9892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -10293,7 +9963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -10364,7 +10034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -10435,7 +10105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -10506,7 +10176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -10577,7 +10247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -10648,7 +10318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -10719,7 +10389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -10790,7 +10460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -10861,7 +10531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -10938,19 +10608,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10958,7 +10628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -10966,7 +10636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -10974,7 +10644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10982,7 +10652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -10990,7 +10660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -10998,7 +10668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -11006,7 +10676,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -11014,7 +10684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -11022,7 +10692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -11030,7 +10700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -11038,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -11046,7 +10716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -11054,7 +10724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -11062,7 +10732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -11070,7 +10740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -11078,7 +10748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -11086,7 +10756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -11094,7 +10764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -11102,7 +10772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -11110,7 +10780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -11124,19 +10794,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -11144,7 +10814,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -11152,7 +10822,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11160,7 +10830,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -11168,7 +10838,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -11176,7 +10846,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -11184,7 +10854,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -11192,7 +10862,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -11200,7 +10870,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -11208,7 +10878,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -11216,7 +10886,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -11224,7 +10894,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -11232,7 +10902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -11240,7 +10910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -11248,7 +10918,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -11256,7 +10926,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -11264,7 +10934,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -11272,7 +10942,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -11280,7 +10950,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -11288,7 +10958,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -11296,7 +10966,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
